--- a/sneakers_price_simulation3.xlsx
+++ b/sneakers_price_simulation3.xlsx
@@ -5,17 +5,17 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherylsiew-macbpro/Desktop/excel for pitch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherylsiew-macbpro/Desktop/team1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -3715,7 +3715,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -3776,7 +3776,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4060,7 +4060,7 @@
   <dimension ref="A1:G1245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="D413" sqref="D413:D438"/>
+      <selection activeCell="K430" sqref="K430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
